--- a/classification/droptc/modern-bert/unfreeze/99511865/prediction.xlsx
+++ b/classification/droptc/modern-bert/unfreeze/99511865/prediction.xlsx
@@ -490,7 +490,7 @@
         <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9962925314903259</v>
+        <v>0.997174859046936</v>
       </c>
     </row>
     <row r="3">
@@ -518,7 +518,7 @@
         <v>1</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9941205382347107</v>
+        <v>0.9994822144508362</v>
       </c>
     </row>
     <row r="4">
@@ -546,7 +546,7 @@
         <v>1</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9992196559906006</v>
+        <v>0.9993792772293091</v>
       </c>
     </row>
     <row r="5">
@@ -562,19 +562,19 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9305098652839661</v>
+        <v>0.9991135001182556</v>
       </c>
     </row>
     <row r="6">
@@ -590,19 +590,19 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E6" t="b">
         <v>1</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9919318556785583</v>
+        <v>0.9988349080085754</v>
       </c>
     </row>
     <row r="7">
@@ -618,19 +618,19 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E7" t="b">
         <v>1</v>
       </c>
       <c r="F7" t="n">
-        <v>0.999171257019043</v>
+        <v>0.9966236352920532</v>
       </c>
     </row>
     <row r="8">
@@ -651,14 +651,14 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8" t="n">
-        <v>0.3783701956272125</v>
+        <v>0.9975595474243164</v>
       </c>
     </row>
     <row r="9">
@@ -686,7 +686,7 @@
         <v>1</v>
       </c>
       <c r="F9" t="n">
-        <v>0.999201238155365</v>
+        <v>0.9997842907905579</v>
       </c>
     </row>
     <row r="10">
@@ -702,19 +702,19 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E10" t="b">
         <v>1</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9996117949485779</v>
+        <v>0.9945489764213562</v>
       </c>
     </row>
     <row r="11">
@@ -730,7 +730,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -739,10 +739,10 @@
         </is>
       </c>
       <c r="E11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0.999007523059845</v>
+        <v>0.9979429841041565</v>
       </c>
     </row>
     <row r="12">
@@ -758,19 +758,19 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E12" t="b">
         <v>1</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9878426790237427</v>
+        <v>0.9986546039581299</v>
       </c>
     </row>
     <row r="13">
@@ -786,7 +786,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -795,10 +795,10 @@
         </is>
       </c>
       <c r="E13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9995323419570923</v>
+        <v>0.9824362993240356</v>
       </c>
     </row>
     <row r="14">
@@ -826,7 +826,7 @@
         <v>1</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9996260404586792</v>
+        <v>0.9975549578666687</v>
       </c>
     </row>
     <row r="15">
@@ -842,19 +842,19 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="E15" t="b">
         <v>1</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9940237402915955</v>
+        <v>0.943597674369812</v>
       </c>
     </row>
     <row r="16">
@@ -870,19 +870,19 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E16" t="b">
         <v>1</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9832001924514771</v>
+        <v>0.999703586101532</v>
       </c>
     </row>
     <row r="17">
@@ -910,7 +910,7 @@
         <v>1</v>
       </c>
       <c r="F17" t="n">
-        <v>0.999201238155365</v>
+        <v>0.9997826218605042</v>
       </c>
     </row>
     <row r="18">
@@ -926,19 +926,19 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E18" t="b">
         <v>1</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9950063228607178</v>
+        <v>0.9995114803314209</v>
       </c>
     </row>
     <row r="19">
@@ -966,7 +966,7 @@
         <v>1</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9995647072792053</v>
+        <v>0.9997543692588806</v>
       </c>
     </row>
     <row r="20">
@@ -994,7 +994,7 @@
         <v>1</v>
       </c>
       <c r="F20" t="n">
-        <v>0.999171257019043</v>
+        <v>0.9997748732566833</v>
       </c>
     </row>
     <row r="21">
@@ -1010,19 +1010,19 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9996045231819153</v>
+        <v>0.995195209980011</v>
       </c>
     </row>
     <row r="22">
@@ -1038,19 +1038,19 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9964677095413208</v>
+        <v>0.7907493114471436</v>
       </c>
     </row>
     <row r="23">
@@ -1078,7 +1078,7 @@
         <v>1</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9968149065971375</v>
+        <v>0.9955655932426453</v>
       </c>
     </row>
     <row r="24">
@@ -1094,19 +1094,19 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E24" t="b">
         <v>1</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9981529116630554</v>
+        <v>0.9974306225776672</v>
       </c>
     </row>
     <row r="25">
@@ -1122,19 +1122,19 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E25" t="b">
         <v>1</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9887877106666565</v>
+        <v>0.9973816275596619</v>
       </c>
     </row>
     <row r="26">
@@ -1162,7 +1162,7 @@
         <v>1</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9940237402915955</v>
+        <v>0.9966236352920532</v>
       </c>
     </row>
     <row r="27">
@@ -1190,7 +1190,7 @@
         <v>1</v>
       </c>
       <c r="F27" t="n">
-        <v>0.9993294477462769</v>
+        <v>0.9994844198226929</v>
       </c>
     </row>
     <row r="28">
@@ -1218,7 +1218,7 @@
         <v>1</v>
       </c>
       <c r="F28" t="n">
-        <v>0.9994390606880188</v>
+        <v>0.9995952248573303</v>
       </c>
     </row>
     <row r="29">
@@ -1246,7 +1246,7 @@
         <v>1</v>
       </c>
       <c r="F29" t="n">
-        <v>0.9993017911911011</v>
+        <v>0.9994434714317322</v>
       </c>
     </row>
     <row r="30">
@@ -1262,19 +1262,19 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E30" t="b">
         <v>1</v>
       </c>
       <c r="F30" t="n">
-        <v>0.9522247910499573</v>
+        <v>0.99967360496521</v>
       </c>
     </row>
     <row r="31">
@@ -1302,7 +1302,7 @@
         <v>1</v>
       </c>
       <c r="F31" t="n">
-        <v>0.9993839263916016</v>
+        <v>0.9996033310890198</v>
       </c>
     </row>
     <row r="32">
@@ -1330,7 +1330,7 @@
         <v>1</v>
       </c>
       <c r="F32" t="n">
-        <v>0.9996544122695923</v>
+        <v>0.9996135830879211</v>
       </c>
     </row>
     <row r="33">
@@ -1358,7 +1358,7 @@
         <v>1</v>
       </c>
       <c r="F33" t="n">
-        <v>0.9997022747993469</v>
+        <v>0.9996341466903687</v>
       </c>
     </row>
     <row r="34">
@@ -1374,7 +1374,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1383,10 +1383,10 @@
         </is>
       </c>
       <c r="E34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0.999171257019043</v>
+        <v>0.9974244832992554</v>
       </c>
     </row>
     <row r="35">
@@ -1414,7 +1414,7 @@
         <v>1</v>
       </c>
       <c r="F35" t="n">
-        <v>0.999171257019043</v>
+        <v>0.9989091157913208</v>
       </c>
     </row>
     <row r="36">
@@ -1430,19 +1430,19 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E36" t="b">
         <v>1</v>
       </c>
       <c r="F36" t="n">
-        <v>0.9992935657501221</v>
+        <v>0.9775658845901489</v>
       </c>
     </row>
     <row r="37">
@@ -1458,19 +1458,19 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E37" t="b">
         <v>1</v>
       </c>
       <c r="F37" t="n">
-        <v>0.9703822135925293</v>
+        <v>0.9972278475761414</v>
       </c>
     </row>
     <row r="38">
@@ -1486,7 +1486,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1495,10 +1495,10 @@
         </is>
       </c>
       <c r="E38" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F38" t="n">
-        <v>0.9988228678703308</v>
+        <v>0.9994076490402222</v>
       </c>
     </row>
     <row r="39">
@@ -1514,19 +1514,19 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E39" t="b">
         <v>1</v>
       </c>
       <c r="F39" t="n">
-        <v>0.9992724061012268</v>
+        <v>0.389068067073822</v>
       </c>
     </row>
     <row r="40">
@@ -1554,7 +1554,7 @@
         <v>1</v>
       </c>
       <c r="F40" t="n">
-        <v>0.9993528723716736</v>
+        <v>0.9996671676635742</v>
       </c>
     </row>
     <row r="41">
@@ -1582,7 +1582,7 @@
         <v>1</v>
       </c>
       <c r="F41" t="n">
-        <v>0.9917410612106323</v>
+        <v>0.9977520108222961</v>
       </c>
     </row>
     <row r="42">
@@ -1598,19 +1598,19 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E42" t="b">
         <v>1</v>
       </c>
       <c r="F42" t="n">
-        <v>0.5464063882827759</v>
+        <v>0.9992223978042603</v>
       </c>
     </row>
     <row r="43">
@@ -1626,19 +1626,19 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E43" t="b">
         <v>1</v>
       </c>
       <c r="F43" t="n">
-        <v>0.9995230436325073</v>
+        <v>0.9830906391143799</v>
       </c>
     </row>
     <row r="44">
@@ -1654,7 +1654,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1663,10 +1663,10 @@
         </is>
       </c>
       <c r="E44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F44" t="n">
-        <v>0.9211370348930359</v>
+        <v>0.9847049713134766</v>
       </c>
     </row>
     <row r="45">
@@ -1694,7 +1694,7 @@
         <v>1</v>
       </c>
       <c r="F45" t="n">
-        <v>0.9990109205245972</v>
+        <v>0.9993622899055481</v>
       </c>
     </row>
     <row r="46">
@@ -1710,19 +1710,19 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E46" t="b">
         <v>1</v>
       </c>
       <c r="F46" t="n">
-        <v>0.9996905326843262</v>
+        <v>0.9988522529602051</v>
       </c>
     </row>
     <row r="47">
@@ -1750,7 +1750,7 @@
         <v>1</v>
       </c>
       <c r="F47" t="n">
-        <v>0.9990447163581848</v>
+        <v>0.9994968175888062</v>
       </c>
     </row>
     <row r="48">
@@ -1766,19 +1766,19 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E48" t="b">
         <v>1</v>
       </c>
       <c r="F48" t="n">
-        <v>0.9995273351669312</v>
+        <v>0.926748514175415</v>
       </c>
     </row>
     <row r="49">
@@ -1794,19 +1794,19 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E49" t="b">
         <v>1</v>
       </c>
       <c r="F49" t="n">
-        <v>0.9949842691421509</v>
+        <v>0.9984779953956604</v>
       </c>
     </row>
     <row r="50">
@@ -1822,19 +1822,19 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E50" t="b">
         <v>1</v>
       </c>
       <c r="F50" t="n">
-        <v>0.9993525147438049</v>
+        <v>0.9916327595710754</v>
       </c>
     </row>
     <row r="51">
@@ -1855,14 +1855,14 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E51" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F51" t="n">
-        <v>0.9669060111045837</v>
+        <v>0.9997050166130066</v>
       </c>
     </row>
     <row r="52">
@@ -1878,19 +1878,19 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F52" t="n">
-        <v>0.9995860457420349</v>
+        <v>0.9947531223297119</v>
       </c>
     </row>
     <row r="53">
@@ -1906,19 +1906,19 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E53" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F53" t="n">
-        <v>0.52254319190979</v>
+        <v>0.685125470161438</v>
       </c>
     </row>
     <row r="54">
@@ -1934,19 +1934,19 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E54" t="b">
         <v>1</v>
       </c>
       <c r="F54" t="n">
-        <v>0.9993207454681396</v>
+        <v>0.9959498643875122</v>
       </c>
     </row>
     <row r="55">
@@ -1962,19 +1962,19 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E55" t="b">
         <v>1</v>
       </c>
       <c r="F55" t="n">
-        <v>0.9813920855522156</v>
+        <v>0.9996726512908936</v>
       </c>
     </row>
     <row r="56">
@@ -2002,7 +2002,7 @@
         <v>1</v>
       </c>
       <c r="F56" t="n">
-        <v>0.9981762170791626</v>
+        <v>0.999646782875061</v>
       </c>
     </row>
     <row r="57">
@@ -2030,7 +2030,7 @@
         <v>1</v>
       </c>
       <c r="F57" t="n">
-        <v>0.999534010887146</v>
+        <v>0.9994801878929138</v>
       </c>
     </row>
     <row r="58">
@@ -2046,19 +2046,19 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E58" t="b">
         <v>0</v>
       </c>
       <c r="F58" t="n">
-        <v>0.9845750331878662</v>
+        <v>0.9978280663490295</v>
       </c>
     </row>
     <row r="59">
@@ -2086,7 +2086,7 @@
         <v>1</v>
       </c>
       <c r="F59" t="n">
-        <v>0.9996491670608521</v>
+        <v>0.9996261596679688</v>
       </c>
     </row>
     <row r="60">
@@ -2102,19 +2102,19 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E60" t="b">
         <v>1</v>
       </c>
       <c r="F60" t="n">
-        <v>0.9940237402915955</v>
+        <v>0.9993889331817627</v>
       </c>
     </row>
     <row r="61">
@@ -2130,7 +2130,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2139,10 +2139,10 @@
         </is>
       </c>
       <c r="E61" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F61" t="n">
-        <v>0.9354004859924316</v>
+        <v>0.9994961023330688</v>
       </c>
     </row>
     <row r="62">
@@ -2170,7 +2170,7 @@
         <v>1</v>
       </c>
       <c r="F62" t="n">
-        <v>0.9918612241744995</v>
+        <v>0.463830828666687</v>
       </c>
     </row>
     <row r="63">
@@ -2198,7 +2198,7 @@
         <v>1</v>
       </c>
       <c r="F63" t="n">
-        <v>0.9995181560516357</v>
+        <v>0.9995729327201843</v>
       </c>
     </row>
     <row r="64">
@@ -2214,19 +2214,19 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E64" t="b">
         <v>1</v>
       </c>
       <c r="F64" t="n">
-        <v>0.9993017911911011</v>
+        <v>0.9934585690498352</v>
       </c>
     </row>
     <row r="65">
@@ -2242,19 +2242,19 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E65" t="b">
         <v>1</v>
       </c>
       <c r="F65" t="n">
-        <v>0.9967143535614014</v>
+        <v>0.288634717464447</v>
       </c>
     </row>
     <row r="66">
@@ -2270,19 +2270,19 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E66" t="b">
         <v>1</v>
       </c>
       <c r="F66" t="n">
-        <v>0.999171257019043</v>
+        <v>0.9962460398674011</v>
       </c>
     </row>
     <row r="67">
@@ -2298,7 +2298,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2307,10 +2307,10 @@
         </is>
       </c>
       <c r="E67" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F67" t="n">
-        <v>0.999171257019043</v>
+        <v>0.9841626882553101</v>
       </c>
     </row>
     <row r="68">
@@ -2326,19 +2326,19 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E68" t="b">
         <v>1</v>
       </c>
       <c r="F68" t="n">
-        <v>0.994786262512207</v>
+        <v>0.9998400211334229</v>
       </c>
     </row>
     <row r="69">
@@ -2366,7 +2366,7 @@
         <v>1</v>
       </c>
       <c r="F69" t="n">
-        <v>0.9995726943016052</v>
+        <v>0.9988299012184143</v>
       </c>
     </row>
     <row r="70">
@@ -2394,7 +2394,7 @@
         <v>1</v>
       </c>
       <c r="F70" t="n">
-        <v>0.9997605681419373</v>
+        <v>0.9994938373565674</v>
       </c>
     </row>
     <row r="71">
@@ -2422,7 +2422,7 @@
         <v>1</v>
       </c>
       <c r="F71" t="n">
-        <v>0.9993315935134888</v>
+        <v>0.9996813535690308</v>
       </c>
     </row>
     <row r="72">
@@ -2438,19 +2438,19 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E72" t="b">
         <v>1</v>
       </c>
       <c r="F72" t="n">
-        <v>0.9672136306762695</v>
+        <v>0.9955393671989441</v>
       </c>
     </row>
     <row r="73">
@@ -2466,19 +2466,19 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E73" t="b">
         <v>1</v>
       </c>
       <c r="F73" t="n">
-        <v>0.999531626701355</v>
+        <v>0.9955655932426453</v>
       </c>
     </row>
     <row r="74">
@@ -2494,19 +2494,19 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E74" t="b">
         <v>1</v>
       </c>
       <c r="F74" t="n">
-        <v>0.9620503783226013</v>
+        <v>0.5638784170150757</v>
       </c>
     </row>
     <row r="75">
@@ -2522,19 +2522,19 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E75" t="b">
         <v>1</v>
       </c>
       <c r="F75" t="n">
-        <v>0.9997497200965881</v>
+        <v>0.9962460398674011</v>
       </c>
     </row>
     <row r="76">
@@ -2562,7 +2562,7 @@
         <v>1</v>
       </c>
       <c r="F76" t="n">
-        <v>0.9996629953384399</v>
+        <v>0.9994961023330688</v>
       </c>
     </row>
     <row r="77">
@@ -2590,7 +2590,7 @@
         <v>1</v>
       </c>
       <c r="F77" t="n">
-        <v>0.999653697013855</v>
+        <v>0.9994961023330688</v>
       </c>
     </row>
     <row r="78">
@@ -2618,7 +2618,7 @@
         <v>1</v>
       </c>
       <c r="F78" t="n">
-        <v>0.9996083378791809</v>
+        <v>0.9996485710144043</v>
       </c>
     </row>
     <row r="79">
@@ -2634,19 +2634,19 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E79" t="b">
         <v>1</v>
       </c>
       <c r="F79" t="n">
-        <v>0.9996308088302612</v>
+        <v>0.9886537194252014</v>
       </c>
     </row>
     <row r="80">
@@ -2662,7 +2662,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2671,10 +2671,10 @@
         </is>
       </c>
       <c r="E80" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F80" t="n">
-        <v>0.9994924068450928</v>
+        <v>0.9198179244995117</v>
       </c>
     </row>
     <row r="81">
@@ -2690,19 +2690,19 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E81" t="b">
         <v>1</v>
       </c>
       <c r="F81" t="n">
-        <v>0.9997168183326721</v>
+        <v>0.9944888353347778</v>
       </c>
     </row>
     <row r="82">
@@ -2718,19 +2718,19 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E82" t="b">
         <v>1</v>
       </c>
       <c r="F82" t="n">
-        <v>0.9995602965354919</v>
+        <v>0.9829440712928772</v>
       </c>
     </row>
     <row r="83">
@@ -2746,19 +2746,19 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E83" t="b">
         <v>1</v>
       </c>
       <c r="F83" t="n">
-        <v>0.9947974681854248</v>
+        <v>0.9996066689491272</v>
       </c>
     </row>
     <row r="84">
@@ -2779,14 +2779,14 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="E84" t="b">
         <v>0</v>
       </c>
       <c r="F84" t="n">
-        <v>0.6352491974830627</v>
+        <v>0.4658974707126617</v>
       </c>
     </row>
     <row r="85">
@@ -2814,7 +2814,7 @@
         <v>1</v>
       </c>
       <c r="F85" t="n">
-        <v>0.9947794675827026</v>
+        <v>0.9962460398674011</v>
       </c>
     </row>
     <row r="86">
@@ -2830,7 +2830,7 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -2839,10 +2839,10 @@
         </is>
       </c>
       <c r="E86" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F86" t="n">
-        <v>0.9993719458580017</v>
+        <v>0.9982607960700989</v>
       </c>
     </row>
     <row r="87">
@@ -2858,19 +2858,19 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E87" t="b">
         <v>1</v>
       </c>
       <c r="F87" t="n">
-        <v>0.868830144405365</v>
+        <v>0.9984779953956604</v>
       </c>
     </row>
     <row r="88">
@@ -2898,7 +2898,7 @@
         <v>1</v>
       </c>
       <c r="F88" t="n">
-        <v>0.9990224838256836</v>
+        <v>0.9981706142425537</v>
       </c>
     </row>
     <row r="89">
@@ -2914,19 +2914,19 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E89" t="b">
         <v>1</v>
       </c>
       <c r="F89" t="n">
-        <v>0.9970148801803589</v>
+        <v>0.9997498393058777</v>
       </c>
     </row>
     <row r="90">
@@ -2954,7 +2954,7 @@
         <v>1</v>
       </c>
       <c r="F90" t="n">
-        <v>0.999171257019043</v>
+        <v>0.9997692704200745</v>
       </c>
     </row>
     <row r="91">
@@ -2982,7 +2982,7 @@
         <v>1</v>
       </c>
       <c r="F91" t="n">
-        <v>0.9997305274009705</v>
+        <v>0.9979752898216248</v>
       </c>
     </row>
     <row r="92">
@@ -3003,14 +3003,14 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E92" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F92" t="n">
-        <v>0.9783734083175659</v>
+        <v>0.9886537194252014</v>
       </c>
     </row>
     <row r="93">
@@ -3038,7 +3038,7 @@
         <v>1</v>
       </c>
       <c r="F93" t="n">
-        <v>0.9992557168006897</v>
+        <v>0.9994811415672302</v>
       </c>
     </row>
     <row r="94">
@@ -3054,19 +3054,19 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E94" t="b">
         <v>1</v>
       </c>
       <c r="F94" t="n">
-        <v>0.9995821118354797</v>
+        <v>0.9979085922241211</v>
       </c>
     </row>
     <row r="95">
@@ -3094,7 +3094,7 @@
         <v>1</v>
       </c>
       <c r="F95" t="n">
-        <v>0.9993910789489746</v>
+        <v>0.999281108379364</v>
       </c>
     </row>
     <row r="96">
@@ -3110,19 +3110,19 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E96" t="b">
         <v>1</v>
       </c>
       <c r="F96" t="n">
-        <v>0.9973800778388977</v>
+        <v>0.9996293783187866</v>
       </c>
     </row>
     <row r="97">
@@ -3138,19 +3138,19 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E97" t="b">
         <v>1</v>
       </c>
       <c r="F97" t="n">
-        <v>0.9989506006240845</v>
+        <v>0.9940072298049927</v>
       </c>
     </row>
     <row r="98">
@@ -3178,7 +3178,7 @@
         <v>1</v>
       </c>
       <c r="F98" t="n">
-        <v>0.9993839263916016</v>
+        <v>0.9994961023330688</v>
       </c>
     </row>
     <row r="99">
@@ -3206,7 +3206,7 @@
         <v>1</v>
       </c>
       <c r="F99" t="n">
-        <v>0.9989697933197021</v>
+        <v>0.8002867102622986</v>
       </c>
     </row>
     <row r="100">
@@ -3222,19 +3222,19 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E100" t="b">
         <v>1</v>
       </c>
       <c r="F100" t="n">
-        <v>0.9996441602706909</v>
+        <v>0.977923572063446</v>
       </c>
     </row>
     <row r="101">
@@ -3250,19 +3250,19 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E101" t="b">
         <v>1</v>
       </c>
       <c r="F101" t="n">
-        <v>0.7212520837783813</v>
+        <v>0.999545156955719</v>
       </c>
     </row>
     <row r="102">
@@ -3290,7 +3290,7 @@
         <v>1</v>
       </c>
       <c r="F102" t="n">
-        <v>0.9995070695877075</v>
+        <v>0.9994365572929382</v>
       </c>
     </row>
     <row r="103">
@@ -3311,14 +3311,14 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E103" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F103" t="n">
-        <v>0.8141815662384033</v>
+        <v>0.9994961023330688</v>
       </c>
     </row>
     <row r="104">
@@ -3346,7 +3346,7 @@
         <v>1</v>
       </c>
       <c r="F104" t="n">
-        <v>0.9992971420288086</v>
+        <v>0.9996960163116455</v>
       </c>
     </row>
     <row r="105">
@@ -3374,7 +3374,7 @@
         <v>1</v>
       </c>
       <c r="F105" t="n">
-        <v>0.9981818199157715</v>
+        <v>0.9995057582855225</v>
       </c>
     </row>
     <row r="106">
@@ -3390,19 +3390,19 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E106" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F106" t="n">
-        <v>0.9995081424713135</v>
+        <v>0.444282591342926</v>
       </c>
     </row>
     <row r="107">
@@ -3418,19 +3418,19 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E107" t="b">
         <v>1</v>
       </c>
       <c r="F107" t="n">
-        <v>0.9994909763336182</v>
+        <v>0.997418999671936</v>
       </c>
     </row>
     <row r="108">
@@ -3446,19 +3446,19 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E108" t="b">
         <v>1</v>
       </c>
       <c r="F108" t="n">
-        <v>0.9949120879173279</v>
+        <v>0.9988904595375061</v>
       </c>
     </row>
     <row r="109">
@@ -3474,19 +3474,19 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E109" t="b">
         <v>1</v>
       </c>
       <c r="F109" t="n">
-        <v>0.9949842691421509</v>
+        <v>0.9990153312683105</v>
       </c>
     </row>
     <row r="110">
@@ -3502,19 +3502,19 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E110" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F110" t="n">
-        <v>0.9258236885070801</v>
+        <v>0.9279229640960693</v>
       </c>
     </row>
     <row r="111">
@@ -3530,19 +3530,19 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E111" t="b">
         <v>1</v>
       </c>
       <c r="F111" t="n">
-        <v>0.9993889331817627</v>
+        <v>0.9801663756370544</v>
       </c>
     </row>
     <row r="112">
@@ -3570,7 +3570,7 @@
         <v>1</v>
       </c>
       <c r="F112" t="n">
-        <v>0.9964790940284729</v>
+        <v>0.9981439113616943</v>
       </c>
     </row>
     <row r="113">
@@ -3586,19 +3586,19 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E113" t="b">
         <v>1</v>
       </c>
       <c r="F113" t="n">
-        <v>0.6012912392616272</v>
+        <v>0.9989851117134094</v>
       </c>
     </row>
     <row r="114">
@@ -3614,19 +3614,19 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E114" t="b">
         <v>1</v>
       </c>
       <c r="F114" t="n">
-        <v>0.9868820309638977</v>
+        <v>0.9995883107185364</v>
       </c>
     </row>
     <row r="115">
@@ -3642,19 +3642,19 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E115" t="b">
         <v>1</v>
       </c>
       <c r="F115" t="n">
-        <v>0.999171257019043</v>
+        <v>0.9946145415306091</v>
       </c>
     </row>
     <row r="116">
@@ -3670,19 +3670,19 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E116" t="b">
         <v>1</v>
       </c>
       <c r="F116" t="n">
-        <v>0.9995713829994202</v>
+        <v>0.9707111120223999</v>
       </c>
     </row>
     <row r="117">
@@ -3698,19 +3698,19 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E117" t="b">
         <v>1</v>
       </c>
       <c r="F117" t="n">
-        <v>0.9994696974754333</v>
+        <v>0.9945494532585144</v>
       </c>
     </row>
     <row r="118">
@@ -3726,19 +3726,19 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E118" t="b">
         <v>1</v>
       </c>
       <c r="F118" t="n">
-        <v>0.9803210496902466</v>
+        <v>0.9998113512992859</v>
       </c>
     </row>
     <row r="119">
@@ -3754,19 +3754,19 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E119" t="b">
         <v>1</v>
       </c>
       <c r="F119" t="n">
-        <v>0.9900915622711182</v>
+        <v>0.9994895458221436</v>
       </c>
     </row>
     <row r="120">
@@ -3794,7 +3794,7 @@
         <v>1</v>
       </c>
       <c r="F120" t="n">
-        <v>0.9994814991950989</v>
+        <v>0.9997521042823792</v>
       </c>
     </row>
     <row r="121">
@@ -3810,19 +3810,19 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="E121" t="b">
         <v>1</v>
       </c>
       <c r="F121" t="n">
-        <v>0.9997052550315857</v>
+        <v>0.9715735912322998</v>
       </c>
     </row>
     <row r="122">
@@ -3838,19 +3838,19 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E122" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F122" t="n">
-        <v>0.9958754181861877</v>
+        <v>0.997998058795929</v>
       </c>
     </row>
     <row r="123">
@@ -3878,7 +3878,7 @@
         <v>1</v>
       </c>
       <c r="F123" t="n">
-        <v>0.9993404746055603</v>
+        <v>0.9994912147521973</v>
       </c>
     </row>
     <row r="124">
@@ -3906,7 +3906,7 @@
         <v>1</v>
       </c>
       <c r="F124" t="n">
-        <v>0.9995043277740479</v>
+        <v>0.999565064907074</v>
       </c>
     </row>
     <row r="125">
@@ -3922,19 +3922,19 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E125" t="b">
         <v>1</v>
       </c>
       <c r="F125" t="n">
-        <v>0.9966141581535339</v>
+        <v>0.9998466968536377</v>
       </c>
     </row>
     <row r="126">
@@ -3962,7 +3962,7 @@
         <v>1</v>
       </c>
       <c r="F126" t="n">
-        <v>0.5007063746452332</v>
+        <v>0.9996938705444336</v>
       </c>
     </row>
     <row r="127">
@@ -3978,19 +3978,19 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E127" t="b">
         <v>1</v>
       </c>
       <c r="F127" t="n">
-        <v>0.9970148801803589</v>
+        <v>0.9997312426567078</v>
       </c>
     </row>
     <row r="128">
@@ -4006,19 +4006,19 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E128" t="b">
         <v>1</v>
       </c>
       <c r="F128" t="n">
-        <v>0.9994609951972961</v>
+        <v>0.9967370629310608</v>
       </c>
     </row>
     <row r="129">
@@ -4034,19 +4034,19 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E129" t="b">
         <v>1</v>
       </c>
       <c r="F129" t="n">
-        <v>0.9935775399208069</v>
+        <v>0.999758780002594</v>
       </c>
     </row>
     <row r="130">
@@ -4062,19 +4062,19 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E130" t="b">
         <v>1</v>
       </c>
       <c r="F130" t="n">
-        <v>0.9865999817848206</v>
+        <v>0.9997451901435852</v>
       </c>
     </row>
     <row r="131">
@@ -4090,19 +4090,19 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E131" t="b">
         <v>1</v>
       </c>
       <c r="F131" t="n">
-        <v>0.9943667054176331</v>
+        <v>0.9996323585510254</v>
       </c>
     </row>
     <row r="132">
@@ -4130,7 +4130,7 @@
         <v>1</v>
       </c>
       <c r="F132" t="n">
-        <v>0.999377965927124</v>
+        <v>0.6728944182395935</v>
       </c>
     </row>
     <row r="133">
@@ -4158,7 +4158,7 @@
         <v>1</v>
       </c>
       <c r="F133" t="n">
-        <v>0.9995830655097961</v>
+        <v>0.9998179078102112</v>
       </c>
     </row>
     <row r="134">
@@ -4186,7 +4186,7 @@
         <v>1</v>
       </c>
       <c r="F134" t="n">
-        <v>0.9993751645088196</v>
+        <v>0.9994434714317322</v>
       </c>
     </row>
     <row r="135">
@@ -4214,7 +4214,7 @@
         <v>1</v>
       </c>
       <c r="F135" t="n">
-        <v>0.9996286630630493</v>
+        <v>0.9997736811637878</v>
       </c>
     </row>
     <row r="136">
@@ -4230,19 +4230,19 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E136" t="b">
         <v>1</v>
       </c>
       <c r="F136" t="n">
-        <v>0.9943667054176331</v>
+        <v>0.9994483590126038</v>
       </c>
     </row>
     <row r="137">
@@ -4258,19 +4258,19 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E137" t="b">
         <v>1</v>
       </c>
       <c r="F137" t="n">
-        <v>0.4056794941425323</v>
+        <v>0.9995114803314209</v>
       </c>
     </row>
     <row r="138">
@@ -4286,19 +4286,19 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E138" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F138" t="n">
-        <v>0.9992181062698364</v>
+        <v>0.9868988990783691</v>
       </c>
     </row>
     <row r="139">
@@ -4326,7 +4326,7 @@
         <v>1</v>
       </c>
       <c r="F139" t="n">
-        <v>0.9991881251335144</v>
+        <v>0.9989606142044067</v>
       </c>
     </row>
     <row r="140">
@@ -4342,19 +4342,19 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E140" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F140" t="n">
-        <v>0.9905481934547424</v>
+        <v>0.9980959296226501</v>
       </c>
     </row>
     <row r="141">
@@ -4382,7 +4382,7 @@
         <v>1</v>
       </c>
       <c r="F141" t="n">
-        <v>0.9997456669807434</v>
+        <v>0.9995562434196472</v>
       </c>
     </row>
     <row r="142">
@@ -4410,7 +4410,7 @@
         <v>1</v>
       </c>
       <c r="F142" t="n">
-        <v>0.9993211030960083</v>
+        <v>0.9994869232177734</v>
       </c>
     </row>
     <row r="143">
@@ -4426,19 +4426,19 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E143" t="b">
         <v>1</v>
       </c>
       <c r="F143" t="n">
-        <v>0.5459516048431396</v>
+        <v>0.9987813830375671</v>
       </c>
     </row>
     <row r="144">
@@ -4454,19 +4454,19 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E144" t="b">
         <v>1</v>
       </c>
       <c r="F144" t="n">
-        <v>0.9996708631515503</v>
+        <v>0.995375394821167</v>
       </c>
     </row>
     <row r="145">
@@ -4482,19 +4482,19 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
           <t>HardwareFault</t>
         </is>
       </c>
-      <c r="D145" t="inlineStr">
-        <is>
-          <t>HardwareFault</t>
-        </is>
-      </c>
       <c r="E145" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F145" t="n">
-        <v>0.9960320591926575</v>
+        <v>0.9766409993171692</v>
       </c>
     </row>
     <row r="146">
@@ -4510,7 +4510,7 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
@@ -4522,7 +4522,7 @@
         <v>0</v>
       </c>
       <c r="F146" t="n">
-        <v>0.979171097278595</v>
+        <v>0.7378698587417603</v>
       </c>
     </row>
     <row r="147">
@@ -4538,19 +4538,19 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E147" t="b">
         <v>1</v>
       </c>
       <c r="F147" t="n">
-        <v>0.9959896206855774</v>
+        <v>0.9996519088745117</v>
       </c>
     </row>
     <row r="148">
@@ -4566,19 +4566,19 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E148" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F148" t="n">
-        <v>0.9598836898803711</v>
+        <v>0.9988055229187012</v>
       </c>
     </row>
     <row r="149">
@@ -4606,7 +4606,7 @@
         <v>1</v>
       </c>
       <c r="F149" t="n">
-        <v>0.999171257019043</v>
+        <v>0.9990610480308533</v>
       </c>
     </row>
     <row r="150">
@@ -4622,19 +4622,19 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E150" t="b">
         <v>1</v>
       </c>
       <c r="F150" t="n">
-        <v>0.9960914254188538</v>
+        <v>0.9993323683738708</v>
       </c>
     </row>
     <row r="151">
@@ -4662,7 +4662,7 @@
         <v>1</v>
       </c>
       <c r="F151" t="n">
-        <v>0.9994077682495117</v>
+        <v>0.9992259740829468</v>
       </c>
     </row>
     <row r="152">
@@ -4678,19 +4678,19 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E152" t="b">
         <v>1</v>
       </c>
       <c r="F152" t="n">
-        <v>0.9997430443763733</v>
+        <v>0.9944888353347778</v>
       </c>
     </row>
     <row r="153">
@@ -4718,7 +4718,7 @@
         <v>1</v>
       </c>
       <c r="F153" t="n">
-        <v>0.9996559619903564</v>
+        <v>0.9996970891952515</v>
       </c>
     </row>
     <row r="154">
@@ -4746,7 +4746,7 @@
         <v>1</v>
       </c>
       <c r="F154" t="n">
-        <v>0.996762752532959</v>
+        <v>0.9996652603149414</v>
       </c>
     </row>
     <row r="155">
@@ -4767,14 +4767,14 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E155" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F155" t="n">
-        <v>0.9920564293861389</v>
+        <v>0.9552907943725586</v>
       </c>
     </row>
     <row r="156">
@@ -4790,19 +4790,19 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E156" t="b">
         <v>0</v>
       </c>
       <c r="F156" t="n">
-        <v>0.5016244649887085</v>
+        <v>0.9978483915328979</v>
       </c>
     </row>
     <row r="157">
@@ -4830,7 +4830,7 @@
         <v>1</v>
       </c>
       <c r="F157" t="n">
-        <v>0.9996383190155029</v>
+        <v>0.9998183846473694</v>
       </c>
     </row>
     <row r="158">
@@ -4858,7 +4858,7 @@
         <v>1</v>
       </c>
       <c r="F158" t="n">
-        <v>0.9954156875610352</v>
+        <v>0.9989259839057922</v>
       </c>
     </row>
     <row r="159">
@@ -4874,19 +4874,19 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E159" t="b">
         <v>1</v>
       </c>
       <c r="F159" t="n">
-        <v>0.9949461817741394</v>
+        <v>0.9995481371879578</v>
       </c>
     </row>
     <row r="160">
@@ -4914,7 +4914,7 @@
         <v>1</v>
       </c>
       <c r="F160" t="n">
-        <v>0.9994945526123047</v>
+        <v>0.9988717436790466</v>
       </c>
     </row>
     <row r="161">
@@ -4942,7 +4942,7 @@
         <v>1</v>
       </c>
       <c r="F161" t="n">
-        <v>0.9994475245475769</v>
+        <v>0.9997583031654358</v>
       </c>
     </row>
     <row r="162">
@@ -4958,7 +4958,7 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
@@ -4967,10 +4967,10 @@
         </is>
       </c>
       <c r="E162" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F162" t="n">
-        <v>0.9993956089019775</v>
+        <v>0.9988688826560974</v>
       </c>
     </row>
     <row r="163">
@@ -4998,7 +4998,7 @@
         <v>1</v>
       </c>
       <c r="F163" t="n">
-        <v>0.9990583062171936</v>
+        <v>0.9994961023330688</v>
       </c>
     </row>
     <row r="164">
@@ -5026,7 +5026,7 @@
         <v>1</v>
       </c>
       <c r="F164" t="n">
-        <v>0.9996004700660706</v>
+        <v>0.9996340274810791</v>
       </c>
     </row>
     <row r="165">
@@ -5042,19 +5042,19 @@
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E165" t="b">
         <v>1</v>
       </c>
       <c r="F165" t="n">
-        <v>0.9945460557937622</v>
+        <v>0.9955655932426453</v>
       </c>
     </row>
     <row r="166">
@@ -5070,19 +5070,19 @@
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E166" t="b">
         <v>1</v>
       </c>
       <c r="F166" t="n">
-        <v>0.9991437196731567</v>
+        <v>0.9829440712928772</v>
       </c>
     </row>
     <row r="167">
@@ -5110,7 +5110,7 @@
         <v>1</v>
       </c>
       <c r="F167" t="n">
-        <v>0.9996486902236938</v>
+        <v>0.9997460246086121</v>
       </c>
     </row>
     <row r="168">
@@ -5126,19 +5126,19 @@
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E168" t="b">
         <v>1</v>
       </c>
       <c r="F168" t="n">
-        <v>0.985590934753418</v>
+        <v>0.9944888353347778</v>
       </c>
     </row>
     <row r="169">
@@ -5166,7 +5166,7 @@
         <v>1</v>
       </c>
       <c r="F169" t="n">
-        <v>0.9993153810501099</v>
+        <v>0.9998102784156799</v>
       </c>
     </row>
     <row r="170">
@@ -5182,19 +5182,19 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E170" t="b">
         <v>1</v>
       </c>
       <c r="F170" t="n">
-        <v>0.9832001924514771</v>
+        <v>0.9837990999221802</v>
       </c>
     </row>
     <row r="171">
@@ -5222,7 +5222,7 @@
         <v>1</v>
       </c>
       <c r="F171" t="n">
-        <v>0.9730105400085449</v>
+        <v>0.9998237490653992</v>
       </c>
     </row>
     <row r="172">
@@ -5238,19 +5238,19 @@
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E172" t="b">
         <v>1</v>
       </c>
       <c r="F172" t="n">
-        <v>0.9992844462394714</v>
+        <v>0.9775658845901489</v>
       </c>
     </row>
     <row r="173">
@@ -5266,19 +5266,19 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E173" t="b">
         <v>1</v>
       </c>
       <c r="F173" t="n">
-        <v>0.7332989573478699</v>
+        <v>0.9996077418327332</v>
       </c>
     </row>
     <row r="174">
@@ -5294,7 +5294,7 @@
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
@@ -5303,10 +5303,10 @@
         </is>
       </c>
       <c r="E174" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F174" t="n">
-        <v>0.9995425939559937</v>
+        <v>0.4704725742340088</v>
       </c>
     </row>
     <row r="175">
@@ -5334,7 +5334,7 @@
         <v>1</v>
       </c>
       <c r="F175" t="n">
-        <v>0.9990140199661255</v>
+        <v>0.9985284805297852</v>
       </c>
     </row>
     <row r="176">
@@ -5350,19 +5350,19 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E176" t="b">
         <v>1</v>
       </c>
       <c r="F176" t="n">
-        <v>0.9847615957260132</v>
+        <v>0.9941387176513672</v>
       </c>
     </row>
     <row r="177">
@@ -5390,7 +5390,7 @@
         <v>1</v>
       </c>
       <c r="F177" t="n">
-        <v>0.9993453621864319</v>
+        <v>0.997035026550293</v>
       </c>
     </row>
     <row r="178">
@@ -5406,19 +5406,19 @@
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E178" t="b">
         <v>1</v>
       </c>
       <c r="F178" t="n">
-        <v>0.9995647072792053</v>
+        <v>0.9926664233207703</v>
       </c>
     </row>
     <row r="179">
@@ -5434,19 +5434,19 @@
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E179" t="b">
         <v>1</v>
       </c>
       <c r="F179" t="n">
-        <v>0.999292254447937</v>
+        <v>0.9930887818336487</v>
       </c>
     </row>
     <row r="180">
@@ -5462,19 +5462,19 @@
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E180" t="b">
         <v>1</v>
       </c>
       <c r="F180" t="n">
-        <v>0.9958894848823547</v>
+        <v>0.9997139573097229</v>
       </c>
     </row>
     <row r="181">
@@ -5502,7 +5502,7 @@
         <v>1</v>
       </c>
       <c r="F181" t="n">
-        <v>0.9994755387306213</v>
+        <v>0.9997434020042419</v>
       </c>
     </row>
     <row r="182">
@@ -5518,19 +5518,19 @@
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E182" t="b">
         <v>1</v>
       </c>
       <c r="F182" t="n">
-        <v>0.9992673993110657</v>
+        <v>0.9871475100517273</v>
       </c>
     </row>
     <row r="183">
@@ -5546,19 +5546,19 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="E183" t="b">
         <v>1</v>
       </c>
       <c r="F183" t="n">
-        <v>0.996113657951355</v>
+        <v>0.9691357016563416</v>
       </c>
     </row>
     <row r="184">
@@ -5574,19 +5574,19 @@
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E184" t="b">
         <v>1</v>
       </c>
       <c r="F184" t="n">
-        <v>0.9964790940284729</v>
+        <v>0.9916812777519226</v>
       </c>
     </row>
     <row r="185">
@@ -5614,7 +5614,7 @@
         <v>1</v>
       </c>
       <c r="F185" t="n">
-        <v>0.999752938747406</v>
+        <v>0.9991045594215393</v>
       </c>
     </row>
     <row r="186">
@@ -5630,19 +5630,19 @@
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E186" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F186" t="n">
-        <v>0.9176495671272278</v>
+        <v>0.9811739921569824</v>
       </c>
     </row>
     <row r="187">
@@ -5670,7 +5670,7 @@
         <v>1</v>
       </c>
       <c r="F187" t="n">
-        <v>0.999308705329895</v>
+        <v>0.9979752898216248</v>
       </c>
     </row>
     <row r="188">
@@ -5698,7 +5698,7 @@
         <v>1</v>
       </c>
       <c r="F188" t="n">
-        <v>0.9995259046554565</v>
+        <v>0.9994961023330688</v>
       </c>
     </row>
     <row r="189">
@@ -5714,19 +5714,19 @@
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E189" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F189" t="n">
-        <v>0.9964790940284729</v>
+        <v>0.996889054775238</v>
       </c>
     </row>
     <row r="190">
@@ -5742,19 +5742,19 @@
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E190" t="b">
         <v>1</v>
       </c>
       <c r="F190" t="n">
-        <v>0.9934346675872803</v>
+        <v>0.9996135830879211</v>
       </c>
     </row>
     <row r="191">
@@ -5770,19 +5770,19 @@
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E191" t="b">
         <v>1</v>
       </c>
       <c r="F191" t="n">
-        <v>0.9997265934944153</v>
+        <v>0.9841368198394775</v>
       </c>
     </row>
     <row r="192">
@@ -5798,19 +5798,19 @@
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E192" t="b">
         <v>1</v>
       </c>
       <c r="F192" t="n">
-        <v>0.9974074959754944</v>
+        <v>0.999305248260498</v>
       </c>
     </row>
     <row r="193">
@@ -5838,7 +5838,7 @@
         <v>1</v>
       </c>
       <c r="F193" t="n">
-        <v>0.9987383484840393</v>
+        <v>0.9982576966285706</v>
       </c>
     </row>
     <row r="194">
@@ -5854,19 +5854,19 @@
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E194" t="b">
         <v>1</v>
       </c>
       <c r="F194" t="n">
-        <v>0.9970148801803589</v>
+        <v>0.9992244243621826</v>
       </c>
     </row>
     <row r="195">
@@ -5894,7 +5894,7 @@
         <v>1</v>
       </c>
       <c r="F195" t="n">
-        <v>0.999482274055481</v>
+        <v>0.9992478489875793</v>
       </c>
     </row>
     <row r="196">
@@ -5922,7 +5922,7 @@
         <v>1</v>
       </c>
       <c r="F196" t="n">
-        <v>0.999625563621521</v>
+        <v>0.9997813105583191</v>
       </c>
     </row>
     <row r="197">
@@ -5950,7 +5950,7 @@
         <v>1</v>
       </c>
       <c r="F197" t="n">
-        <v>0.9992301464080811</v>
+        <v>0.9994961023330688</v>
       </c>
     </row>
     <row r="198">
@@ -5966,19 +5966,19 @@
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E198" t="b">
         <v>1</v>
       </c>
       <c r="F198" t="n">
-        <v>0.9992334842681885</v>
+        <v>0.9981830716133118</v>
       </c>
     </row>
     <row r="199">
@@ -5994,19 +5994,19 @@
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="E199" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F199" t="n">
-        <v>0.7460836172103882</v>
+        <v>0.960126519203186</v>
       </c>
     </row>
     <row r="200">
@@ -6034,7 +6034,7 @@
         <v>1</v>
       </c>
       <c r="F200" t="n">
-        <v>0.9994633793830872</v>
+        <v>0.9995928406715393</v>
       </c>
     </row>
     <row r="201">
@@ -6050,19 +6050,19 @@
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E201" t="b">
         <v>1</v>
       </c>
       <c r="F201" t="n">
-        <v>0.880788266658783</v>
+        <v>0.9994955062866211</v>
       </c>
     </row>
     <row r="202">
@@ -6078,19 +6078,19 @@
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E202" t="b">
         <v>1</v>
       </c>
       <c r="F202" t="n">
-        <v>0.9996708631515503</v>
+        <v>0.9969146251678467</v>
       </c>
     </row>
     <row r="203">
@@ -6106,7 +6106,7 @@
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
@@ -6115,10 +6115,10 @@
         </is>
       </c>
       <c r="E203" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F203" t="n">
-        <v>0.9994338154792786</v>
+        <v>0.9998339414596558</v>
       </c>
     </row>
     <row r="204">
@@ -6134,19 +6134,19 @@
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E204" t="b">
         <v>1</v>
       </c>
       <c r="F204" t="n">
-        <v>0.985590934753418</v>
+        <v>0.9994961023330688</v>
       </c>
     </row>
     <row r="205">
@@ -6174,7 +6174,7 @@
         <v>1</v>
       </c>
       <c r="F205" t="n">
-        <v>0.9995604157447815</v>
+        <v>0.9989225268363953</v>
       </c>
     </row>
     <row r="206">
@@ -6190,19 +6190,19 @@
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E206" t="b">
         <v>1</v>
       </c>
       <c r="F206" t="n">
-        <v>0.9861341118812561</v>
+        <v>0.9995939135551453</v>
       </c>
     </row>
     <row r="207">
@@ -6218,19 +6218,19 @@
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E207" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F207" t="n">
-        <v>0.9281682968139648</v>
+        <v>0.9976688027381897</v>
       </c>
     </row>
     <row r="208">
@@ -6258,7 +6258,7 @@
         <v>1</v>
       </c>
       <c r="F208" t="n">
-        <v>0.999752938747406</v>
+        <v>0.9994829893112183</v>
       </c>
     </row>
     <row r="209">
@@ -6286,7 +6286,7 @@
         <v>1</v>
       </c>
       <c r="F209" t="n">
-        <v>0.9994390606880188</v>
+        <v>0.9991140961647034</v>
       </c>
     </row>
     <row r="210">
@@ -6307,14 +6307,14 @@
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E210" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F210" t="n">
-        <v>0.9983953833580017</v>
+        <v>0.6343087553977966</v>
       </c>
     </row>
   </sheetData>
